--- a/labs/02_base_versus_real_prices/excel/2024_removing_trend_and_seasonality.xlsx
+++ b/labs/02_base_versus_real_prices/excel/2024_removing_trend_and_seasonality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielfaltynowski/Documents/Repositories/time-series-labs/labs/02_base_versus_real_prices/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F754DF-8A76-5144-8B3A-E2D7D8381F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6207411D-8B75-2E40-8EA2-DF0EA4E2DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{89C6EF17-6D7C-1E4E-801A-59B52683BE08}"/>
   </bookViews>
@@ -1433,6 +1433,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
